--- a/Extra/libros_flumperio@gmail.com.xlsx
+++ b/Extra/libros_flumperio@gmail.com.xlsx
@@ -26,16 +26,16 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-                        Conservación y restauración de materiales metálicos
+                        CARA A CARA CON SATANÁS
                     </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-                        Barrio Martín, Joaquín / Medina Sánchez, María Cruz / Cabello Briones, Cristina / Pardo Naranjo, Ana Isabel / Donate Carretero, Inmaculada / Serrano Moreno, Juan
+                        PORQUERAS, TERESA
                                             </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">978-84-1357-141-6 </x:t>
+    <x:t xml:space="preserve">978-84-122549-4-5 </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">

--- a/Extra/libros_flumperio@gmail.com.xlsx
+++ b/Extra/libros_flumperio@gmail.com.xlsx
@@ -25,43 +25,25 @@
     <x:t>ISBN</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">
-                        CARA A CARA CON SATANÁS
-                    </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                        PORQUERAS, TERESA
-                                            </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">978-84-122549-4-5 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                        Demonología en la historia cristiana
-                    </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                        Jesús Galisteo Leiva
-                                            </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">978-84-1052-511-5 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                        JUJUTSU KAISEN 14 (NUEVO PVP)
-                    </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-                        AKUTAMI, GEGE
-                                            </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">978-84-679-6690-9 </x:t>
+    <x:t>Collective Wisdom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Landemore, Hélène</x:t>
+  </x:si>
+  <x:si>
+    <x:t>978-1-107-63027-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>978-1-107-01033-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Floral table decoration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vandermoere, Carl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>978-90-5856-174-9</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -442,24 +424,24 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extra/libros_flumperio@gmail.com.xlsx
+++ b/Extra/libros_flumperio@gmail.com.xlsx
@@ -25,25 +25,31 @@
     <x:t>ISBN</x:t>
   </x:si>
   <x:si>
-    <x:t>Collective Wisdom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Landemore, Hélène</x:t>
-  </x:si>
-  <x:si>
-    <x:t>978-1-107-63027-7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>978-1-107-01033-8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Floral table decoration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vandermoere, Carl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>978-90-5856-174-9</x:t>
+    <x:t>CARA A CARA CON SATANÁS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PORQUERAS, TERESA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>978-84-122549-4-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Demonología en la historia cristiana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jesús Galisteo Leiva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>978-84-1052-511-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUJUTSU KAISEN 14 (NUEVO PVP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKUTAMI, GEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>978-84-679-6690-9</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -424,24 +430,24 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
